--- a/cases/goodhostpital2021/项目指标填报表.xlsx
+++ b/cases/goodhostpital2021/项目指标填报表.xlsx
@@ -393,16 +393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="23"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -413,12 +414,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -499,7 +503,7 @@
         <v>临床带教教师和指导医师接受教育教学培训占比</v>
       </c>
       <c r="B11" t="str">
-        <v>人</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="12">
@@ -528,10 +532,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>医院医学教育专职管理人员数与与医院教育培训学员数之比</v>
+        <v>医院医学教育专职管理人员数与医院教育培训学员数之比</v>
       </c>
       <c r="B15" t="str">
-        <v>篇</v>
+        <v>比值（1:X）</v>
       </c>
     </row>
     <row r="16">
@@ -615,6 +619,9 @@
       <c r="A26" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B26" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -946,23 +953,24 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F67"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -973,12 +981,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -1039,6 +1050,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1090,93 +1104,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -1184,47 +1216,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -1232,7 +1264,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -1240,23 +1272,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -1264,7 +1296,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -1272,31 +1304,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -1304,39 +1336,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1347,12 +1428,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -1413,6 +1497,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1464,93 +1551,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -1558,47 +1663,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -1606,7 +1711,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -1614,23 +1719,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -1638,7 +1743,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -1646,31 +1751,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -1678,39 +1783,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1721,12 +1875,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -1787,6 +1944,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1838,93 +1998,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -1932,47 +2110,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -1980,7 +2158,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -1988,23 +2166,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -2012,7 +2190,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -2020,31 +2198,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -2052,39 +2230,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2095,12 +2322,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -2161,6 +2391,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2212,93 +2445,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -2306,47 +2557,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -2354,7 +2605,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -2362,23 +2613,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -2386,7 +2637,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -2394,31 +2645,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -2426,39 +2677,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2469,12 +2769,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -2535,6 +2838,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2586,93 +2892,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -2680,47 +3004,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -2728,7 +3052,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -2736,23 +3060,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -2760,7 +3084,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -2768,31 +3092,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -2800,39 +3124,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2843,12 +3216,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -2909,6 +3285,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2960,93 +3339,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -3054,47 +3451,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -3102,7 +3499,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -3110,23 +3507,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -3134,7 +3531,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -3142,31 +3539,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -3174,39 +3571,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3217,12 +3663,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -3283,6 +3732,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3334,93 +3786,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -3428,47 +3898,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -3476,7 +3946,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -3484,23 +3954,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -3508,7 +3978,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -3516,31 +3986,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -3548,39 +4018,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3591,12 +4110,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -3657,6 +4179,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3708,93 +4233,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -3802,47 +4345,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -3850,7 +4393,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -3858,23 +4401,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -3882,7 +4425,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -3890,31 +4433,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -3922,39 +4465,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3965,12 +4557,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -4031,6 +4626,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4082,93 +4680,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -4176,47 +4792,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -4224,7 +4840,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -4232,23 +4848,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -4256,7 +4872,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -4264,31 +4880,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -4296,39 +4912,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4339,12 +5004,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -4405,6 +5073,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4456,93 +5127,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -4550,47 +5239,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -4598,7 +5287,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -4606,23 +5295,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -4630,7 +5319,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -4638,31 +5327,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -4670,39 +5359,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4713,12 +5451,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -4779,6 +5520,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4830,93 +5574,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -4924,47 +5686,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -4972,7 +5734,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -4980,23 +5742,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -5004,7 +5766,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -5012,31 +5774,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -5044,39 +5806,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5087,12 +5898,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -5153,6 +5967,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5204,93 +6021,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -5298,47 +6133,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -5346,7 +6181,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -5354,23 +6189,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -5378,7 +6213,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -5386,31 +6221,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -5418,39 +6253,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5461,12 +6345,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -5527,6 +6414,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5578,93 +6468,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -5672,47 +6580,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -5720,7 +6628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -5728,23 +6636,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -5752,7 +6660,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -5760,31 +6668,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -5792,39 +6700,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5835,12 +6792,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -5901,6 +6861,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5952,93 +6915,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -6046,47 +7027,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -6094,7 +7075,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -6102,23 +7083,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -6126,7 +7107,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -6134,31 +7115,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -6166,39 +7147,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6209,12 +7239,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -6275,6 +7308,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6326,93 +7362,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -6420,47 +7474,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -6468,7 +7522,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -6476,23 +7530,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -6500,7 +7554,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -6508,31 +7562,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -6540,39 +7594,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6583,12 +7686,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -6649,6 +7755,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6700,93 +7809,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -6794,47 +7921,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -6842,7 +7969,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -6850,23 +7977,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -6874,7 +8001,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -6882,31 +8009,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -6914,39 +8041,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6957,12 +8133,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -7023,6 +8202,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7074,93 +8256,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -7168,47 +8368,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -7216,7 +8416,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -7224,23 +8424,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -7248,7 +8448,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -7256,31 +8456,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -7288,39 +8488,88 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="10"/>
+    <col min="3" max="3" customWidth="1" width="9"/>
     <col min="4" max="4" customWidth="1" width="10"/>
     <col min="5" max="5" customWidth="1" width="10"/>
+    <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7331,12 +8580,15 @@
         <v>计量单位</v>
       </c>
       <c r="C1" t="str">
+        <v>指标说明</v>
+      </c>
+      <c r="D1" t="str">
         <v>Y2021</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Y2020</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Y2019</v>
       </c>
     </row>
@@ -7397,6 +8649,9 @@
       <c r="A9" t="str">
         <v>DRGs组数</v>
       </c>
+      <c r="B9" t="str">
+        <v>组</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7448,93 +8703,111 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>是否为区卫健委重点专科</v>
+        <v>是否为县级中医药局重点专科</v>
+      </c>
+      <c r="B16" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>是否为区教育局或科技局重点学科或实验室</v>
+        <v>是否为县级卫健委重点专科</v>
+      </c>
+      <c r="B17" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
+      </c>
+      <c r="B18" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>是否为市卫健委重点专科</v>
+        <v>是否为国家中医药局重点专科</v>
+      </c>
+      <c r="B19" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>是否为市教育厅或科技厅重点学科或重点实验室</v>
+        <v>是否为国家卫健委临床重点专科</v>
+      </c>
+      <c r="B20" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
+        <v>是否为地级中医药局重点专科</v>
+      </c>
+      <c r="B21" t="str">
+        <v>分</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="B22" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>非医嘱离院率</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="B23" t="str">
-        <v>百分比（%）</v>
+        <v>分</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="B24" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="B25" t="str">
-        <v>元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>万元收入能耗占比</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="B26" t="str">
-        <v>吨标煤/万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>医疗收入</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="B27" t="str">
-        <v>万元</v>
+        <v>分</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>医疗服务收入</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="B28" t="str">
-        <v>万元</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="B29" t="str">
         <v>百分比（%）</v>
@@ -7542,47 +8815,47 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>收支结余</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="B30" t="str">
-        <v>百分比（%）</v>
+        <v>元</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>有效收入</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B31" t="str">
-        <v>万元</v>
+        <v>元</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>平均住院日</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="B32" t="str">
-        <v>天</v>
+        <v>吨标煤/万元</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>医疗收入</v>
       </c>
       <c r="B33" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="B34" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="B35" t="str">
         <v>百分比（%）</v>
@@ -7590,7 +8863,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>收支结余</v>
       </c>
       <c r="B36" t="str">
         <v>百分比（%）</v>
@@ -7598,23 +8871,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>住院次均费用增幅</v>
+        <v>有效收入</v>
       </c>
       <c r="B37" t="str">
-        <v>百分比（%）</v>
+        <v>万元</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>医疗收入增幅</v>
+        <v>平均住院日</v>
       </c>
       <c r="B38" t="str">
-        <v>百分比（%）</v>
+        <v>天</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="B39" t="str">
         <v>百分比（%）</v>
@@ -7622,7 +8895,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="B40" t="str">
         <v>百分比（%）</v>
@@ -7630,31 +8903,31 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="B41" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="B42" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>实际开放床位数</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="B43" t="str">
-        <v>张</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>开放床位使用率</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B44" t="str">
         <v>百分比（%）</v>
@@ -7662,23 +8935,71 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="B45" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B46" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>医师人数与开放床位数比</v>
+      </c>
+      <c r="B47" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="B48" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="B49" t="str">
+        <v>张</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="B50" t="str">
+        <v>百分比（%）</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="B51" t="str">
+        <v>比值（1:X）</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>核定床位数</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B52" t="str">
         <v>张</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F52"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cases/goodhostpital2021/项目指标填报表.xlsx
+++ b/cases/goodhostpital2021/项目指标填报表.xlsx
@@ -1589,7 +1589,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -1600,7 +1600,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -1611,7 +1611,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -1622,7 +1622,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -1633,7 +1633,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -1644,7 +1644,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -1655,7 +1655,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -1666,7 +1666,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -1677,7 +1677,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -1688,7 +1688,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -1699,7 +1699,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -1710,7 +1710,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -2372,7 +2372,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -2383,7 +2383,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -2394,7 +2394,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -2405,7 +2405,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -2416,7 +2416,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -2427,7 +2427,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -2438,7 +2438,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -2449,7 +2449,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -2460,7 +2460,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -2471,7 +2471,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -2482,7 +2482,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -2493,7 +2493,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -3155,7 +3155,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -3166,7 +3166,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -3177,7 +3177,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -3188,7 +3188,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -3199,7 +3199,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -3210,7 +3210,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -3221,7 +3221,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -3232,7 +3232,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -3243,7 +3243,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -3254,7 +3254,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -3265,7 +3265,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -3276,7 +3276,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -3938,7 +3938,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -3949,7 +3949,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -3960,7 +3960,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -3971,7 +3971,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -3982,7 +3982,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -3993,7 +3993,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -4004,7 +4004,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -4015,7 +4015,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -4026,7 +4026,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -4037,7 +4037,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -4048,7 +4048,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -4059,7 +4059,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -4721,7 +4721,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -4732,7 +4732,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -4743,7 +4743,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -4754,7 +4754,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -4765,7 +4765,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -4776,7 +4776,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -4787,7 +4787,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -4798,7 +4798,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -4809,7 +4809,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -4820,7 +4820,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -4831,7 +4831,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -4842,7 +4842,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -5504,7 +5504,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -5515,7 +5515,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -5526,7 +5526,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -5537,7 +5537,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -5548,7 +5548,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -5559,7 +5559,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -5570,7 +5570,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -5581,7 +5581,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -5592,7 +5592,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -5603,7 +5603,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -5614,7 +5614,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -5625,7 +5625,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -6287,7 +6287,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -6298,7 +6298,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -6309,7 +6309,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -6320,7 +6320,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -6331,7 +6331,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -6342,7 +6342,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -6353,7 +6353,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -6364,7 +6364,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -6375,7 +6375,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -6386,7 +6386,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -6397,7 +6397,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -6408,7 +6408,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -7070,7 +7070,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -7081,7 +7081,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -7092,7 +7092,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -7103,7 +7103,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -7114,7 +7114,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -7125,7 +7125,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -7136,7 +7136,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -7147,7 +7147,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -7158,7 +7158,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -7169,7 +7169,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -7180,7 +7180,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -7191,7 +7191,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -7853,7 +7853,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -7864,7 +7864,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -7875,7 +7875,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -7886,7 +7886,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -7897,7 +7897,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -7908,7 +7908,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -7919,7 +7919,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -7930,7 +7930,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -7941,7 +7941,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -7952,7 +7952,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -7963,7 +7963,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -7974,7 +7974,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -8636,7 +8636,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -8647,7 +8647,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -8658,7 +8658,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -8669,7 +8669,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -8680,7 +8680,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -8691,7 +8691,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -8702,7 +8702,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -8713,7 +8713,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -8724,7 +8724,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -8735,7 +8735,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -8746,7 +8746,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -8757,7 +8757,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -9419,7 +9419,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -9430,7 +9430,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -9441,7 +9441,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -9452,7 +9452,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -9463,7 +9463,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -9474,7 +9474,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -9485,7 +9485,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -9496,7 +9496,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -9507,7 +9507,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -9518,7 +9518,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -9529,7 +9529,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -9540,7 +9540,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -10202,7 +10202,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -10213,7 +10213,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -10224,7 +10224,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -10235,7 +10235,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -10246,7 +10246,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -10257,7 +10257,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -10268,7 +10268,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -10279,7 +10279,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -10290,7 +10290,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -10301,7 +10301,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -10312,7 +10312,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -10323,7 +10323,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -10985,7 +10985,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -10996,7 +10996,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -11007,7 +11007,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -11018,7 +11018,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -11029,7 +11029,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -11040,7 +11040,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -11051,7 +11051,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -11062,7 +11062,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -11073,7 +11073,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -11084,7 +11084,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -11095,7 +11095,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -11106,7 +11106,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -11768,7 +11768,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -11779,7 +11779,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -11790,7 +11790,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -11801,7 +11801,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -11812,7 +11812,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -11823,7 +11823,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -11834,7 +11834,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -11845,7 +11845,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -11856,7 +11856,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -11867,7 +11867,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -11878,7 +11878,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -11889,7 +11889,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -12551,7 +12551,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -12562,7 +12562,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -12573,7 +12573,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -12584,7 +12584,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -12595,7 +12595,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -12606,7 +12606,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -12617,7 +12617,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -12628,7 +12628,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -12639,7 +12639,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -12650,7 +12650,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -12661,7 +12661,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -12672,7 +12672,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -13334,7 +13334,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -13345,7 +13345,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -13356,7 +13356,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -13367,7 +13367,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -13378,7 +13378,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -13389,7 +13389,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -13400,7 +13400,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -13411,7 +13411,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -13422,7 +13422,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -13433,7 +13433,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -13444,7 +13444,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -13455,7 +13455,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -14117,7 +14117,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -14128,7 +14128,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -14139,7 +14139,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -14150,7 +14150,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -14161,7 +14161,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -14172,7 +14172,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -14183,7 +14183,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -14194,7 +14194,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -14205,7 +14205,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -14216,7 +14216,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -14227,7 +14227,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -14238,7 +14238,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">
@@ -14900,7 +14900,7 @@
         <v>分</v>
       </c>
       <c r="F26" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="27">
@@ -14911,7 +14911,7 @@
         <v>分</v>
       </c>
       <c r="F27" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="28">
@@ -14922,7 +14922,7 @@
         <v>分</v>
       </c>
       <c r="F28" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="29">
@@ -14933,7 +14933,7 @@
         <v>分</v>
       </c>
       <c r="F29" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="30">
@@ -14944,7 +14944,7 @@
         <v>分</v>
       </c>
       <c r="F30" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="31">
@@ -14955,7 +14955,7 @@
         <v>分</v>
       </c>
       <c r="F31" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="32">
@@ -14966,7 +14966,7 @@
         <v>分</v>
       </c>
       <c r="F32" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="33">
@@ -14977,7 +14977,7 @@
         <v>分</v>
       </c>
       <c r="F33" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="34">
@@ -14988,7 +14988,7 @@
         <v>分</v>
       </c>
       <c r="F34" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="35">
@@ -14999,7 +14999,7 @@
         <v>分</v>
       </c>
       <c r="F35" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="36">
@@ -15010,7 +15010,7 @@
         <v>分</v>
       </c>
       <c r="F36" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="37">
@@ -15021,7 +15021,7 @@
         <v>分</v>
       </c>
       <c r="F37" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="38">

--- a/cases/goodhostpital2021/项目指标填报表.xlsx
+++ b/cases/goodhostpital2021/项目指标填报表.xlsx
@@ -1233,6 +1233,9 @@
       <c r="B78" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F78" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1241,6 +1244,9 @@
       <c r="B79" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F79" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1249,6 +1255,9 @@
       <c r="B80" t="str">
         <v>张</v>
       </c>
+      <c r="F80" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1279,6 +1288,9 @@
       <c r="B83" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F83" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1287,6 +1299,9 @@
       <c r="B84" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F84" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1294,6 +1309,9 @@
       </c>
       <c r="B85" t="str">
         <v>张</v>
+      </c>
+      <c r="F85" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -2024,6 +2042,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -2032,6 +2053,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -2062,6 +2086,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -2070,6 +2097,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -2077,6 +2107,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -2807,6 +2840,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -2815,6 +2851,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -2845,6 +2884,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -2853,6 +2895,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -2860,6 +2905,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -3590,6 +3638,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -3598,6 +3649,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -3628,6 +3682,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -3636,6 +3693,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -3643,6 +3703,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -4373,6 +4436,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -4381,6 +4447,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -4411,6 +4480,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -4419,6 +4491,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -4426,6 +4501,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -5156,6 +5234,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -5164,6 +5245,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -5194,6 +5278,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -5202,6 +5289,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -5209,6 +5299,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -5939,6 +6032,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -5947,6 +6043,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -5977,6 +6076,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -5985,6 +6087,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -5992,6 +6097,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -6722,6 +6830,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -6730,6 +6841,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -6760,6 +6874,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -6768,6 +6885,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -6775,6 +6895,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -7505,6 +7628,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -7513,6 +7639,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -7543,6 +7672,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -7551,6 +7683,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -7558,6 +7693,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -8288,6 +8426,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -8296,6 +8437,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -8326,6 +8470,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -8334,6 +8481,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -8341,6 +8491,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -9071,6 +9224,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -9079,6 +9235,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -9109,6 +9268,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -9117,6 +9279,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -9124,6 +9289,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -9854,6 +10022,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -9862,6 +10033,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -9892,6 +10066,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -9900,6 +10077,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -9907,6 +10087,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -10637,6 +10820,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -10645,6 +10831,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -10675,6 +10864,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -10683,6 +10875,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -10690,6 +10885,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -11420,6 +11618,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -11428,6 +11629,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -11458,6 +11662,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -11466,6 +11673,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -11473,6 +11683,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -12203,6 +12416,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -12211,6 +12427,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -12241,6 +12460,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -12249,6 +12471,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -12256,6 +12481,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -12986,6 +13214,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -12994,6 +13225,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -13024,6 +13258,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -13032,6 +13269,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -13039,6 +13279,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -13769,6 +14012,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -13777,6 +14023,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -13807,6 +14056,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -13815,6 +14067,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -13822,6 +14077,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -14552,6 +14810,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -14560,6 +14821,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -14590,6 +14854,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -14598,6 +14865,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -14605,6 +14875,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
@@ -15335,6 +15608,9 @@
       <c r="B67" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F67" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -15343,6 +15619,9 @@
       <c r="B68" t="str">
         <v>张</v>
       </c>
+      <c r="F68" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -15373,6 +15652,9 @@
       <c r="B71" t="str">
         <v>百分比（%）</v>
       </c>
+      <c r="F71" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -15381,6 +15663,9 @@
       <c r="B72" t="str">
         <v>比值（1:X）</v>
       </c>
+      <c r="F72" t="str">
+        <v>等级评审标准细则</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -15388,6 +15673,9 @@
       </c>
       <c r="B73" t="str">
         <v>张</v>
+      </c>
+      <c r="F73" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
   </sheetData>
